--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2672185.391084964</v>
+        <v>2763031.627406283</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6420672.511903702</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2837136.506768292</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6207806.300987999</v>
+        <v>6388933.719868933</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>256.23636911207</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -668,13 +670,13 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>360.2602453369134</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.70240179331449</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -880,7 +882,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>65.42520756919141</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>369.6364074227253</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
@@ -902,19 +904,19 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>112.1200102742781</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>75.91639817709564</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>224.6175354663322</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>17.18077488314878</v>
       </c>
       <c r="F8" t="n">
-        <v>16.91907731046746</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -1184,22 +1186,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>40.45427700983281</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1354,7 +1356,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>80.18991912980356</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1379,16 +1381,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>56.55785978442675</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1436,7 +1438,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.9223291393136</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1539,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
@@ -1576,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>104.5237230231201</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1625,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>339.16394050185</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>39.64108301376388</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1765,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>27.75165306750448</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.9263373332097</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1856,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>368.180220150888</v>
+        <v>358.7938392237629</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -1907,7 +1909,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2014,7 +2016,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>58.34650505700584</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>19.50042337073144</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>49.12308702887171</v>
       </c>
       <c r="C20" t="n">
-        <v>49.02746394088942</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>107.6981942873708</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>53.42804917767968</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2326,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>409.4403642856012</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -2333,10 +2335,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>173.5693474676043</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2491,10 +2493,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>131.4010377304179</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>150.2762836600688</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>369.6581867526364</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2564,7 +2566,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -2573,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>59.82422708687632</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>24.2103560589061</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>72.74919653700108</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>364.054132580644</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2810,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>49.02746394088949</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.99975024629187</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
@@ -3010,10 +3012,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -3080,19 +3082,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>358.7938392237627</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3187,10 +3189,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>119.2136045658897</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>368.27584323887</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3278,7 +3280,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -3317,13 +3319,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>132.5026949533379</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>32.64961909055902</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3563,13 +3565,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>22.92681701721022</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>88.37144488016051</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3670,16 +3672,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>93.33842389481383</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>65.31383608752344</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3752,10 +3754,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>297.1427106764702</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>356.6927080779407</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3898,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>29.38679645199745</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,19 +3951,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>240.1692396874047</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>109.94313675427</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4138,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>62.03770319012826</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>1142.108628778666</v>
       </c>
       <c r="C2" t="n">
-        <v>74.16631101150881</v>
+        <v>1136.02444213234</v>
       </c>
       <c r="D2" t="n">
-        <v>73.74278514497341</v>
+        <v>1135.600916265805</v>
       </c>
       <c r="E2" t="n">
-        <v>63.44297370227418</v>
+        <v>1125.301104823106</v>
       </c>
       <c r="F2" t="n">
-        <v>46.45296569636579</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4331,19 +4333,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>1054.568412147452</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
         <v>1571.411346813777</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
         <v>2088.254281480102</v>
@@ -4358,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>1552.329808443156</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>1552.329808443156</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>558.6080202959275</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>1054.568412147452</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="O3" t="n">
-        <v>2088.254281480102</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
         <v>2088.254281480102</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>549.0186571248826</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C4" t="n">
-        <v>377.9252846865991</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D4" t="n">
-        <v>377.9252846865991</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E4" t="n">
-        <v>377.9252846865991</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>213.2941587971903</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>213.2941587971903</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>63.68670360264699</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1384.772214130362</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1101.974066676486</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>828.0883216160082</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>549.0186571248826</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X4" t="n">
-        <v>549.0186571248826</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="Y4" t="n">
-        <v>549.0186571248826</v>
+        <v>158.1111315252759</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>673.5953885690503</v>
+        <v>795.1993990705208</v>
       </c>
       <c r="C5" t="n">
-        <v>667.5112019227245</v>
+        <v>789.115212424195</v>
       </c>
       <c r="D5" t="n">
-        <v>667.087676056189</v>
+        <v>788.6916865576595</v>
       </c>
       <c r="E5" t="n">
-        <v>553.8351404256051</v>
+        <v>778.3918751149603</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8047283792926</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N5" t="n">
-        <v>1054.568412147452</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O5" t="n">
-        <v>1571.411346813777</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1481.356235076093</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>1481.356235076093</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="X5" t="n">
-        <v>1080.712837245046</v>
+        <v>1168.569507578324</v>
       </c>
       <c r="Y5" t="n">
-        <v>679.7761641931357</v>
+        <v>1168.569507578324</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>1192.007362767164</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767164</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>402.0447530816473</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>402.0447530816473</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>402.0447530816473</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>402.0447530816473</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>402.0447530816473</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>234.7943620071907</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1384.772214130362</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1101.974066676486</v>
+        <v>833.0643573215223</v>
       </c>
       <c r="V7" t="n">
-        <v>828.0883216160082</v>
+        <v>559.1786122610442</v>
       </c>
       <c r="W7" t="n">
-        <v>828.0883216160082</v>
+        <v>280.1089477699186</v>
       </c>
       <c r="X7" t="n">
-        <v>589.7444594756917</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y7" t="n">
-        <v>589.7444594756917</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.731938909628</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>1683.647752263302</v>
+        <v>1330.81452560638</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.183822356362</v>
+        <v>1330.390999739845</v>
       </c>
       <c r="E8" t="n">
-        <v>864.843606873259</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>847.7536297919787</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>295.9505570973564</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>295.9505570973564</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>812.7934917636817</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>1329.636426430007</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>1329.636426430007</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2088.254281480102</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>1695.912714533713</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>1695.912714533713</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>1695.912714533713</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>1695.912714533713</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>1695.912714533713</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650823</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593073</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936201</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960218</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>866.8439382834442</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147452</v>
+        <v>866.8439382834442</v>
       </c>
       <c r="N9" t="n">
-        <v>1054.568412147452</v>
+        <v>866.8439382834442</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2088.254281480102</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1980.264271594411</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1820.922407781419</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1623.571596919638</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1020.300919787893</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.259730306692</v>
+        <v>410.4770685080374</v>
       </c>
       <c r="C10" t="n">
-        <v>201.259730306692</v>
+        <v>369.6141624374992</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>369.6141624374992</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>369.6141624374992</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>369.6141624374992</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>470.2970630371111</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>759.5611194776044</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1040.399901871855</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1299.960512198329</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1505.635952447941</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1571.163982250452</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1375.867883064921</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.950756782464</v>
+        <v>1375.867883064921</v>
       </c>
       <c r="V10" t="n">
-        <v>786.0650117219859</v>
+        <v>1101.982138004443</v>
       </c>
       <c r="W10" t="n">
-        <v>506.9953472308603</v>
+        <v>822.9124735133171</v>
       </c>
       <c r="X10" t="n">
-        <v>425.9954289179274</v>
+        <v>822.9124735133171</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.259730306692</v>
+        <v>598.1767749020818</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1713.545093251264</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>1303.420502564534</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
-        <v>898.9565726575947</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E11" t="n">
-        <v>484.6163571744915</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F11" t="n">
-        <v>484.6163571744915</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G11" t="n">
-        <v>75.88807306732367</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>75.88807306732367</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>75.88807306732367</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>614.0475741763632</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1051.55984570999</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1827.878436701744</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2581.059453340362</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3224.690309757467</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3753.847007676619</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3753.847007676619</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3737.274502068783</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>3515.068018015642</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>3258.007526275152</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2908.169971611633</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2524.409670746801</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2123.766272915754</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2123.766272915754</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>531.6943293326224</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>1192.782501251911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>1192.782501251911</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="N12" t="n">
-        <v>1192.782501251911</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O12" t="n">
-        <v>1560.671376429294</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P12" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>485.3177869686118</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="C13" t="n">
-        <v>386.4063433935476</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="D13" t="n">
-        <v>386.4063433935476</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E13" t="n">
-        <v>225.495528261867</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F13" t="n">
-        <v>225.495528261867</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G13" t="n">
-        <v>225.495528261867</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1418.895201568084</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1418.895201568084</v>
+        <v>1517.063076106301</v>
       </c>
       <c r="U13" t="n">
-        <v>1136.097054114208</v>
+        <v>1234.264928652425</v>
       </c>
       <c r="V13" t="n">
-        <v>1136.097054114208</v>
+        <v>960.3791835919473</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.097054114208</v>
+        <v>960.3791835919473</v>
       </c>
       <c r="X13" t="n">
-        <v>897.7531919738915</v>
+        <v>960.3791835919473</v>
       </c>
       <c r="Y13" t="n">
-        <v>673.0174933626562</v>
+        <v>735.6434849807119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2531.835765352786</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C14" t="n">
-        <v>2121.711174666056</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D14" t="n">
-        <v>1717.247244759116</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>1302.907029276013</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>881.8766172297003</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>473.1483331225325</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>162.2398357502505</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>273.3856003216039</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
-        <v>811.5451014306434</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
-        <v>1524.136501242881</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2300.455092234635</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2300.455092234635</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2944.08594865174</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3473.242646570892</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3659.122578160285</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>3659.122578160285</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>3659.122578160285</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3316.532739269527</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2932.772438404696</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2932.772438404696</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y14" t="n">
-        <v>2531.835765352786</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>531.6943293326224</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>531.6943293326224</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>531.6943293326224</v>
+        <v>704.368908940975</v>
       </c>
       <c r="N15" t="n">
-        <v>531.6943293326224</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O15" t="n">
-        <v>1235.651419878517</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P15" t="n">
-        <v>1772.53280423384</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75.88807306732367</v>
+        <v>606.6076240083174</v>
       </c>
       <c r="C16" t="n">
-        <v>75.88807306732367</v>
+        <v>435.5142515700339</v>
       </c>
       <c r="D16" t="n">
-        <v>75.88807306732367</v>
+        <v>435.5142515700339</v>
       </c>
       <c r="E16" t="n">
-        <v>75.88807306732367</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="F16" t="n">
-        <v>75.88807306732367</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G16" t="n">
-        <v>75.88807306732367</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1520.014251363573</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1333.622483243484</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1094.073744220186</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>811.2755967663099</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V16" t="n">
-        <v>537.3898517058319</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W16" t="n">
-        <v>537.3898517058319</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X16" t="n">
-        <v>299.0459895655153</v>
+        <v>831.3433226195527</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.88807306732367</v>
+        <v>606.6076240083174</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C17" t="n">
-        <v>2102.237727455811</v>
+        <v>2092.756534600129</v>
       </c>
       <c r="D17" t="n">
-        <v>1697.773797548872</v>
+        <v>1688.29260469319</v>
       </c>
       <c r="E17" t="n">
-        <v>1283.433582065768</v>
+        <v>1273.952389210086</v>
       </c>
       <c r="F17" t="n">
-        <v>862.403170019456</v>
+        <v>852.921977163774</v>
       </c>
       <c r="G17" t="n">
         <v>490.5039577458317</v>
@@ -5555,10 +5557,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5597,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>741.8628115185547</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L18" t="n">
-        <v>1402.950983437843</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M18" t="n">
-        <v>1402.950983437843</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="N18" t="n">
-        <v>1402.950983437843</v>
+        <v>1820.802819284162</v>
       </c>
       <c r="O18" t="n">
-        <v>1548.467481689963</v>
+        <v>1820.802819284162</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>578.280283388802</v>
+        <v>916.6240469015422</v>
       </c>
       <c r="C19" t="n">
-        <v>578.280283388802</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D19" t="n">
-        <v>418.7856387117121</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5701,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>1100.295707834299</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V19" t="n">
-        <v>1041.359844140354</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W19" t="n">
-        <v>1041.359844140354</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="X19" t="n">
-        <v>803.0159820000373</v>
+        <v>1329.059451906822</v>
       </c>
       <c r="Y19" t="n">
-        <v>578.280283388802</v>
+        <v>1104.323753295587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
         <v>2052.715036606428</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C21" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D21" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E21" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F21" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G21" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H21" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>3914.479025640505</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N21" t="n">
-        <v>3914.479025640505</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
-        <v>4100.47899204261</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S21" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T21" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U21" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V21" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W21" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X21" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y21" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3678.252546599444</v>
+        <v>369.2801436008075</v>
       </c>
       <c r="C22" t="n">
-        <v>3507.159174161161</v>
+        <v>369.2801436008075</v>
       </c>
       <c r="D22" t="n">
-        <v>3347.66452948407</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E22" t="n">
-        <v>3186.75371435239</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F22" t="n">
-        <v>3186.75371435239</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G22" t="n">
-        <v>3186.75371435239</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3186.75371435239</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>4422.636145507842</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>4139.837998053967</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V22" t="n">
-        <v>3865.952252993488</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W22" t="n">
-        <v>3865.952252993488</v>
+        <v>832.3597043523594</v>
       </c>
       <c r="X22" t="n">
-        <v>3865.952252993488</v>
+        <v>594.0158422120428</v>
       </c>
       <c r="Y22" t="n">
-        <v>3865.952252993488</v>
+        <v>369.2801436008075</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2237.518802661711</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1827.394211974981</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1422.930282068041</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6029,10 +6031,10 @@
         <v>3449.320053209158</v>
       </c>
       <c r="X23" t="n">
-        <v>3048.67665537811</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2647.7399823262</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>3788.526792419522</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>4662.18488453114</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O24" t="n">
-        <v>4662.18488453114</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3785.072964682925</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="C25" t="n">
-        <v>3785.072964682925</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D25" t="n">
-        <v>3625.578320005835</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E25" t="n">
-        <v>3464.667504874155</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F25" t="n">
-        <v>3300.036378984746</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
         <v>3132.785987910289</v>
@@ -6169,28 +6171,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>4662.18488453114</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>4662.18488453114</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="U25" t="n">
-        <v>4379.386737077264</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="V25" t="n">
-        <v>4105.500992016786</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="W25" t="n">
-        <v>3972.77267107697</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="X25" t="n">
-        <v>3972.77267107697</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="Y25" t="n">
-        <v>3972.77267107697</v>
+        <v>4238.726172167188</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>464.5807072718708</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>153.6722098995888</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6312,13 +6314,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>93.2436976906228</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>966.9017898022406</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
-        <v>1670.858880348135</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3594.287766548796</v>
+        <v>648.3393773611919</v>
       </c>
       <c r="C28" t="n">
-        <v>3423.194394110513</v>
+        <v>477.2460049229084</v>
       </c>
       <c r="D28" t="n">
-        <v>3398.739489000507</v>
+        <v>477.2460049229084</v>
       </c>
       <c r="E28" t="n">
-        <v>3398.739489000507</v>
+        <v>316.3351897912278</v>
       </c>
       <c r="F28" t="n">
-        <v>3398.739489000507</v>
+        <v>316.3351897912278</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000507</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4150.971659063151</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>3868.173511609275</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V28" t="n">
-        <v>3594.287766548796</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W28" t="n">
-        <v>3594.287766548796</v>
+        <v>1060.774782366472</v>
       </c>
       <c r="X28" t="n">
-        <v>3594.287766548796</v>
+        <v>1060.774782366472</v>
       </c>
       <c r="Y28" t="n">
-        <v>3594.287766548796</v>
+        <v>836.0390837552362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2144.727460069145</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>1734.602869382415</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1697.773797548872</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1283.433582065768</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>862.403170019456</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>453.6748859122881</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>142.7663885400061</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C30" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D30" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E30" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F30" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G30" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H30" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I30" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.501944945938</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N30" t="n">
-        <v>3396.521901496716</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
-        <v>4100.47899204261</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S30" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T30" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U30" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V30" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W30" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X30" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y30" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3491.860778479353</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C31" t="n">
-        <v>3491.860778479353</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D31" t="n">
-        <v>3491.860778479353</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E31" t="n">
-        <v>3330.949963347672</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F31" t="n">
-        <v>3330.949963347672</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G31" t="n">
-        <v>3330.949963347672</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I31" t="n">
         <v>3132.785987910289</v>
@@ -6643,28 +6645,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S31" t="n">
-        <v>4475.79311641105</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T31" t="n">
-        <v>4236.244377387751</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U31" t="n">
-        <v>3953.446229933875</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V31" t="n">
-        <v>3679.560484873397</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W31" t="n">
-        <v>3679.560484873397</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X31" t="n">
-        <v>3679.560484873397</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y31" t="n">
-        <v>3679.560484873397</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2140.463105868917</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1730.338515182187</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1325.874585275247</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>911.5343697921442</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
         <v>490.5039577458317</v>
@@ -6728,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2951.620958585316</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2550.684285533406</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6782,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>549.0499539559215</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N33" t="n">
-        <v>549.0499539559215</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O33" t="n">
-        <v>1253.007044501816</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>373.1561247575004</v>
+        <v>3458.450207833939</v>
       </c>
       <c r="C34" t="n">
-        <v>252.7383423677128</v>
+        <v>3287.356835395656</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>1297.821136963575</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U34" t="n">
-        <v>1297.821136963575</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V34" t="n">
-        <v>1023.935391903097</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="W34" t="n">
-        <v>1023.935391903097</v>
+        <v>4109.229474979536</v>
       </c>
       <c r="X34" t="n">
-        <v>785.5915297627801</v>
+        <v>3870.885612839219</v>
       </c>
       <c r="Y34" t="n">
-        <v>560.8558311515447</v>
+        <v>3646.149914227984</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2140.463105868917</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1730.338515182187</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1325.874585275247</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>911.5343697921442</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
         <v>490.5039577458317</v>
@@ -6965,22 +6967,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>3276.783860599928</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M36" t="n">
-        <v>3750.634527358626</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N36" t="n">
-        <v>3750.634527358626</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O36" t="n">
-        <v>3750.634527358626</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>4312.340419847156</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4023.956756654935</v>
+        <v>428.968196018315</v>
       </c>
       <c r="C37" t="n">
-        <v>4023.956756654935</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D37" t="n">
-        <v>3864.462111977845</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E37" t="n">
-        <v>3730.621005964372</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F37" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4576.912166206539</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T37" t="n">
-        <v>4576.912166206539</v>
+        <v>1403.271412968596</v>
       </c>
       <c r="U37" t="n">
-        <v>4576.912166206539</v>
+        <v>1120.47326551472</v>
       </c>
       <c r="V37" t="n">
-        <v>4303.026421146061</v>
+        <v>1120.47326551472</v>
       </c>
       <c r="W37" t="n">
-        <v>4023.956756654935</v>
+        <v>841.4036010235948</v>
       </c>
       <c r="X37" t="n">
-        <v>4023.956756654935</v>
+        <v>841.4036010235948</v>
       </c>
       <c r="Y37" t="n">
-        <v>4023.956756654935</v>
+        <v>616.6679024123595</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3449.320053209158</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>3048.67665537811</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7257,16 +7259,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>735.0499203580262</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>1578.027001052593</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>1578.027001052593</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3868.173511609275</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C40" t="n">
-        <v>3697.080139170991</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D40" t="n">
-        <v>3537.585494493901</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E40" t="n">
-        <v>3376.674679362221</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>3376.674679362221</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>3282.393443104833</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4390.520398086449</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>4150.971659063151</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U40" t="n">
-        <v>3868.173511609275</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V40" t="n">
-        <v>3868.173511609275</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W40" t="n">
-        <v>3868.173511609275</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="X40" t="n">
-        <v>3868.173511609275</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="Y40" t="n">
-        <v>3868.173511609275</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1632.291788655751</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C41" t="n">
-        <v>1222.167197969021</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D41" t="n">
-        <v>1222.167197969021</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E41" t="n">
-        <v>807.8269824859181</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F41" t="n">
-        <v>386.7965704396057</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G41" t="n">
-        <v>386.7965704396057</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>868.2330456441175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>1092.116491399555</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1868.435082391309</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2621.616099029927</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3265.246955447032</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3794.403653366184</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3794.403653366184</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3794.403653366184</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>3537.343161625694</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3187.505606962175</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W41" t="n">
-        <v>2803.745306097343</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X41" t="n">
-        <v>2443.44964137215</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y41" t="n">
-        <v>2042.512968320241</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>268.7009306299569</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>338.2903116881134</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>1181.26739238268</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N42" t="n">
-        <v>1181.26739238268</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O42" t="n">
-        <v>1181.26739238268</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P42" t="n">
-        <v>1742.97328487121</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2092.817749555194</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>542.3232115515634</v>
+        <v>3625.578320005835</v>
       </c>
       <c r="C43" t="n">
-        <v>512.639578771768</v>
+        <v>3625.578320005835</v>
       </c>
       <c r="D43" t="n">
-        <v>353.144934094678</v>
+        <v>3625.578320005835</v>
       </c>
       <c r="E43" t="n">
-        <v>192.2341189629975</v>
+        <v>3464.667504874155</v>
       </c>
       <c r="F43" t="n">
-        <v>192.2341189629975</v>
+        <v>3300.036378984746</v>
       </c>
       <c r="G43" t="n">
-        <v>192.2341189629975</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H43" t="n">
-        <v>192.2341189629975</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I43" t="n">
-        <v>75.88807306732367</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>89.97062247253419</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>244.5229501947722</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>504.4200504748327</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>793.684106915326</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>1074.522889309576</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>1334.08349963605</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.758939885663</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>1605.286969688174</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>1520.014251363573</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S43" t="n">
-        <v>1333.622483243484</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T43" t="n">
-        <v>1333.622483243484</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U43" t="n">
-        <v>1333.622483243484</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V43" t="n">
-        <v>1059.736738183006</v>
+        <v>3625.578320005835</v>
       </c>
       <c r="W43" t="n">
-        <v>780.66707369188</v>
+        <v>3625.578320005835</v>
       </c>
       <c r="X43" t="n">
-        <v>542.3232115515634</v>
+        <v>3625.578320005835</v>
       </c>
       <c r="Y43" t="n">
-        <v>542.3232115515634</v>
+        <v>3625.578320005835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.711174666056</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>2121.711174666056</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1717.247244759116</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>1302.907029276013</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>881.8766172297003</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>473.1483331225325</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>162.2398357502505</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>330.073544535078</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>811.5451014306434</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1524.136501242881</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2300.455092234635</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2300.455092234635</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2944.08594865174</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3473.242646570892</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3794.403653366184</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3794.403653366184</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3794.403653366184</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3794.403653366184</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3794.403653366184</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3444.566098702664</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W44" t="n">
-        <v>3333.512425213503</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>2932.869027382455</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2531.932354330545</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>754.7189149538581</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>620.7238437028037</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>503.8266859221961</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>383.3338699145241</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>274.3739900970288</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>167.3838774113675</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>96.6366644470835</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>75.88807306732367</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L45" t="n">
-        <v>736.976244986612</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M45" t="n">
-        <v>1579.953325681179</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N45" t="n">
-        <v>1579.953325681179</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="O45" t="n">
-        <v>2122.377268917824</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P45" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q45" t="n">
-        <v>2122.377268917824</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
-        <v>2122.377268917824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2014.387259032133</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1855.045395219141</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1657.694584357359</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1443.983057350393</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1230.749889086722</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1054.423907225615</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>895.0219475894447</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.924658765503</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>560.924658765503</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>401.4300140884129</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>240.5191989567324</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>75.88807306732367</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>89.97062247253419</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>244.5229501947722</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>504.4200504748327</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>793.684106915326</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1074.522889309576</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1334.08349963605</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.758939885663</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1605.286969688174</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1605.286969688174</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1605.286969688174</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>1365.738230664876</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U46" t="n">
-        <v>1365.738230664876</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V46" t="n">
-        <v>1303.073884008181</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W46" t="n">
-        <v>1024.004219517055</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X46" t="n">
-        <v>785.6603573767383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y46" t="n">
-        <v>560.924658765503</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>339.7024893595825</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8055,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>558.5343765177349</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>72.23607294538797</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>292.3871721926164</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>593.8823835359372</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
@@ -8301,13 +8303,13 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>502.6011371814508</v>
+        <v>205.1561293621963</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8316,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,22 +8455,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>496.0520662103268</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>494.5586588013271</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8529,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>189.6570480412971</v>
       </c>
       <c r="M9" t="n">
-        <v>558.5343765177352</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>537.4169854705491</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8708,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,19 +8771,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>816.4195296509889</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>429.3564034215989</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
@@ -8790,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>272.8160431053082</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8936,7 +8938,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -8948,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,25 +9008,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>674.8624769205913</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>596.5640636445446</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9243,7 +9245,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
@@ -9252,19 +9254,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>204.7378408708281</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>376.41122516135</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,22 +9482,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>245.6302329415204</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9717,22 +9719,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>781.8318064390069</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>701.4825071992079</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9960,16 +9962,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>527.8697493391553</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10191,22 +10193,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N30" t="n">
-        <v>381.4963798086771</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10428,25 +10430,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>596.5640636445446</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10662,22 +10664,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>536.2013208684159</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
@@ -10905,19 +10907,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>704.403637616307</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11063,10 +11065,10 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>321.6302927653073</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11078,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>126.406827909997</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>144.6334018173235</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11297,7 +11299,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>575.4712956283337</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11306,7 +11308,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11318,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
         <v>909.0562844399999</v>
@@ -11388,16 +11390,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>605.654451966308</v>
+        <v>481.4220302546871</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>37.84312462897441</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>77.37040466941339</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>71.46010957458705</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -23425,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,22 +23466,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>132.6295286099449</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.175238615034118</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,22 +23655,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>131.5500539128593</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.562004291913212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>36.46078111520808</v>
+        <v>45.8471620423332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23795,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23941,19 +23943,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>212.8003825528674</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>216.460000148182</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="C20" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>50.20150394294824</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>61.75453625903743</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24212,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7564490426710222</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24269,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>223.0676163851327</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>144.8779301157965</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>72.21205796505416</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24452,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>25.66401796922125</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>133.689342171413</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>92.82869062671092</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>42.06483528720059</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>36.46078111520808</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24844,7 +24846,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24853,10 +24855,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>67.11163039630604</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24968,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>222.4997066824607</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>37.84312462897429</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>50.16883414801094</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>4.8745592198064</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>37.84312462897452</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25205,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>26.79901202702581</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>204.5036325425059</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25451,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>308.5558614412303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>72.23946326889818</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25615,7 +25617,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>157.1745055375995</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>39.94425577479632</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>139.9956422619032</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>30.97764792246852</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>269.9795611019131</v>
+        <v>96.14494677818658</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>209.109184419745</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473859.3659043577</v>
+        <v>535850.0349399232</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473859.3659043577</v>
+        <v>535850.0349399233</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>535850.0349399232</v>
+        <v>535850.0349399233</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>535850.0349399232</v>
+        <v>535850.0349399231</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>535850.0349399232</v>
+        <v>535850.0349399233</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>535850.0349399233</v>
+        <v>535850.0349399232</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>535850.0349399231</v>
+        <v>535850.0349399232</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>473859.3659043579</v>
+        <v>535850.0349399231</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473859.3659043577</v>
+        <v>535850.0349399233</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>537511.8970071077</v>
+      </c>
+      <c r="C2" t="n">
+        <v>537511.8970071077</v>
+      </c>
+      <c r="D2" t="n">
         <v>537511.8970071076</v>
       </c>
-      <c r="C2" t="n">
-        <v>537511.8970071079</v>
-      </c>
-      <c r="D2" t="n">
-        <v>537511.8970071077</v>
-      </c>
       <c r="E2" t="n">
-        <v>422631.3263471301</v>
+        <v>477920.3014329048</v>
       </c>
       <c r="F2" t="n">
-        <v>422631.3263471301</v>
+        <v>477920.3014329046</v>
       </c>
       <c r="G2" t="n">
+        <v>477920.3014329047</v>
+      </c>
+      <c r="H2" t="n">
         <v>477920.3014329048</v>
       </c>
-      <c r="H2" t="n">
-        <v>477920.3014329046</v>
-      </c>
       <c r="I2" t="n">
-        <v>477920.3014329047</v>
+        <v>477920.3014329048</v>
       </c>
       <c r="J2" t="n">
         <v>477920.3014329048</v>
@@ -26341,19 +26343,19 @@
         <v>477920.3014329048</v>
       </c>
       <c r="L2" t="n">
-        <v>477920.3014329047</v>
+        <v>477920.3014329046</v>
       </c>
       <c r="M2" t="n">
-        <v>477920.3014329047</v>
+        <v>477920.3014329046</v>
       </c>
       <c r="N2" t="n">
         <v>477920.3014329048</v>
       </c>
       <c r="O2" t="n">
-        <v>422631.32634713</v>
+        <v>477920.3014329048</v>
       </c>
       <c r="P2" t="n">
-        <v>422631.3263471301</v>
+        <v>477920.3014329048</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>127354.6667897506</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59461.45468596174</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>106294.8120178748</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,25 +26423,25 @@
         <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>155118.3712081971</v>
+        <v>57848.94447198568</v>
       </c>
       <c r="E4" t="n">
-        <v>635.5614479011376</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="F4" t="n">
-        <v>635.5614479011376</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="G4" t="n">
+        <v>738.1279301446464</v>
+      </c>
+      <c r="H4" t="n">
+        <v>738.1279301446465</v>
+      </c>
+      <c r="I4" t="n">
         <v>738.1279301446466</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>738.1279301446466</v>
-      </c>
-      <c r="I4" t="n">
-        <v>738.1279301446465</v>
-      </c>
-      <c r="J4" t="n">
-        <v>738.1279301446465</v>
       </c>
       <c r="K4" t="n">
         <v>738.1279301446466</v>
@@ -26448,16 +26450,16 @@
         <v>738.1279301446466</v>
       </c>
       <c r="M4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="N4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="O4" t="n">
-        <v>635.5614479011376</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="P4" t="n">
-        <v>635.5614479011376</v>
+        <v>738.1279301446465</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26475,13 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>57674.93553116599</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>142068.9508272989</v>
+        <v>142068.950827299</v>
       </c>
       <c r="C6" t="n">
-        <v>317024.4607204132</v>
+        <v>317024.4607204131</v>
       </c>
       <c r="D6" t="n">
-        <v>317024.4607204131</v>
+        <v>208834.4122698532</v>
       </c>
       <c r="E6" t="n">
-        <v>236966.1625783124</v>
+        <v>379348.0090769526</v>
       </c>
       <c r="F6" t="n">
-        <v>364320.829368063</v>
+        <v>406316.9632578866</v>
       </c>
       <c r="G6" t="n">
-        <v>346855.5085719251</v>
+        <v>406316.9632578868</v>
       </c>
       <c r="H6" t="n">
-        <v>406316.9632578866</v>
+        <v>406316.9632578869</v>
       </c>
       <c r="I6" t="n">
-        <v>406316.9632578867</v>
+        <v>406316.9632578868</v>
       </c>
       <c r="J6" t="n">
-        <v>269722.1624519918</v>
+        <v>269722.1624519919</v>
       </c>
       <c r="K6" t="n">
-        <v>406316.9632578868</v>
+        <v>406316.9632578869</v>
       </c>
       <c r="L6" t="n">
-        <v>406316.9632578867</v>
+        <v>266317.6523931339</v>
       </c>
       <c r="M6" t="n">
-        <v>300022.151240012</v>
+        <v>383807.6984838392</v>
       </c>
       <c r="N6" t="n">
         <v>406316.9632578868</v>
       </c>
       <c r="O6" t="n">
-        <v>364320.8293680629</v>
+        <v>406316.9632578868</v>
       </c>
       <c r="P6" t="n">
-        <v>364320.829368063</v>
+        <v>406316.9632578869</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>948.6009133415459</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27015,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>426.5373429715204</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>216.945307791239</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>149.7869756677925</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,13 +27390,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>56.55986258893591</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -27546,16 +27548,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>93.48018364340263</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>170.535215949722</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>36.48256044511925</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,19 +27624,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>298.0768030539942</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -27786,13 +27788,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>72.19498246550226</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>55.35263051300484</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>393.0160384451235</v>
       </c>
       <c r="F8" t="n">
-        <v>399.9010306153818</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>128.9281617040678</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -28023,13 +28025,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>155.7705043891099</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>244.2170912967377</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
+        <v>244.2170912967376</v>
+      </c>
+      <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>500.9700927793176</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
+        <v>14.48459394538798</v>
+      </c>
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>203.2507825193993</v>
+      </c>
+      <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,13 +35023,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>445.0368534430334</v>
+        <v>147.5918456237788</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35036,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>403.1397754537075</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>400.9092955204429</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>133.5425242304481</v>
       </c>
       <c r="M9" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>441.9315874077042</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
@@ -35428,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>758.8552459125715</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>371.6049244215989</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>199.4924517720002</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35656,7 +35658,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35668,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>617.2981931821739</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>542.3044286417409</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
@@ -35972,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>146.9863618708281</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>322.1515901585462</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>187.8787539415204</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>724.2675227005894</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>648.289113805458</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>473.6101143363516</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
         <v>543.5954556656965</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N30" t="n">
-        <v>328.3029864149271</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>542.3044286417409</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>478.6370371299985</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37561,7 +37563,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37625,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>648.289113805458</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37783,10 +37785,10 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>226.1448947024625</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37798,10 +37800,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>70.29230409914798</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>90.3737668145198</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38017,7 +38019,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>486.3349059551166</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38026,7 +38028,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38038,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>851.4920007015825</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>547.902972966308</v>
+        <v>423.670551254687</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2763031.627406283</v>
+        <v>2761718.981950704</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029742</v>
+        <v>5301029.811029744</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6388933.719868933</v>
+        <v>6388933.719868932</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>370.1829545100753</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -670,13 +670,13 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>360.2602453369134</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -876,13 +876,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>33.72356368083187</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>65.42520756919141</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>369.6364074227253</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>77.36840186490409</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6175354663322</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>17.18077488314878</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>287.1585221943944</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1293,10 +1293,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>40.45427700983281</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>266.272328390067</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1381,10 +1381,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -1432,7 +1432,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>343.5575398289572</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>104.5237230231201</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>153.5032386802761</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1627,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>49.12308702887178</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>39.64108301376388</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>27.75165306750448</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>85.23148763532129</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1858,10 +1858,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>358.7938392237629</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1903,13 +1903,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>211.6544656203724</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -2019,10 +2019,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>183.8293086577265</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>19.50042337073144</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>49.12308702887171</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -2092,7 +2092,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>108.2642464846192</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>107.6981942873708</v>
+        <v>27.77250173713465</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>85.2997057160983</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2383,7 +2383,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>173.5693474676043</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>175.8549432271305</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.2762836600688</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -2575,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>59.82422708687632</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>72.74919653700108</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>130.007145400963</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>49.02746394088949</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>360.2718058255109</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>20.68378134312494</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3015,7 +3015,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>180.6077930059077</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>364.639993754593</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3082,13 +3082,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>123.8394724344234</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3097,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>153.0251390105127</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>212.6226062992131</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>123.8394724344234</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>379.166248813512</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>32.64961909055902</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>51.94888097361972</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>97.56310642661438</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -3565,7 +3565,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>22.92681701721022</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -3663,7 +3663,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -3675,13 +3675,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>197.5260902362824</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.31383608752344</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>297.1427106764702</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>240.1692396874047</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>25.50298572572925</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>253.733437780414</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>283.7777510779965</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4200,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>149.8429694861527</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1142.108628778666</v>
+        <v>484.2909016982387</v>
       </c>
       <c r="C2" t="n">
-        <v>1136.02444213234</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D2" t="n">
-        <v>1135.600916265805</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E2" t="n">
-        <v>1125.301104823106</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>761.4018671090519</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4330,22 +4330,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N2" t="n">
+        <v>1075.450954962253</v>
+      </c>
+      <c r="O2" t="n">
         <v>1571.411346813777</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
         <v>2088.254281480102</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.973206274203</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W2" t="n">
-        <v>1952.973206274203</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X2" t="n">
-        <v>1552.329808443156</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="Y2" t="n">
-        <v>1552.329808443156</v>
+        <v>858.213077971042</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>690.3841994575342</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="M3" t="n">
-        <v>690.3841994575342</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N3" t="n">
-        <v>1207.22713412386</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.1111315252759</v>
+        <v>1531.843189264715</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1111315252759</v>
+        <v>1360.749816826431</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>1201.255172149341</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>1040.344357017661</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>875.7132311282519</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>708.4628400537953</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1848.705542456804</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1565.907395002929</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>1531.843189264715</v>
       </c>
       <c r="W4" t="n">
-        <v>224.1971997769844</v>
+        <v>1531.843189264715</v>
       </c>
       <c r="X4" t="n">
-        <v>158.1111315252759</v>
+        <v>1531.843189264715</v>
       </c>
       <c r="Y4" t="n">
-        <v>158.1111315252759</v>
+        <v>1531.843189264715</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>795.1993990705208</v>
+        <v>1199.239803110925</v>
       </c>
       <c r="C5" t="n">
         <v>789.115212424195</v>
@@ -4570,49 +4570,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1688317915616</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1530.854701124212</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>2047.697635790537</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>2010.104380606462</v>
       </c>
       <c r="V5" t="n">
-        <v>1952.973206274203</v>
+        <v>2010.104380606462</v>
       </c>
       <c r="W5" t="n">
-        <v>1569.212905409372</v>
+        <v>2010.104380606462</v>
       </c>
       <c r="X5" t="n">
-        <v>1168.569507578324</v>
+        <v>1609.460982775414</v>
       </c>
       <c r="Y5" t="n">
-        <v>1168.569507578324</v>
+        <v>1609.460982775414</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4649,25 +4649,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="M6" t="n">
-        <v>704.7239474634683</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>704.7239474634683</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>833.0643573215223</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>559.1786122610442</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>280.1089477699186</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>41.76508562960205</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1740.93911629311</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>1330.81452560638</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.390999739845</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
         <v>1313.036681676058</v>
@@ -4816,10 +4816,10 @@
         <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>2766.381066547325</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>3410.01192296443</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
         <v>3939.168620883581</v>
@@ -4831,25 +4831,25 @@
         <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4165.605198162539</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="T8" t="n">
-        <v>3943.398714109398</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="U8" t="n">
-        <v>3686.338222368908</v>
+        <v>4043.825781627948</v>
       </c>
       <c r="V8" t="n">
-        <v>3336.500667705388</v>
+        <v>3753.766668300277</v>
       </c>
       <c r="W8" t="n">
-        <v>2952.740366840557</v>
+        <v>3753.766668300277</v>
       </c>
       <c r="X8" t="n">
-        <v>2552.096969009509</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="Y8" t="n">
-        <v>2151.160295957599</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>278.830583030002</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>734.6368392953007</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8439382834442</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8439382834442</v>
+        <v>928.9948061619355</v>
       </c>
       <c r="N9" t="n">
-        <v>866.8439382834442</v>
+        <v>928.9948061619355</v>
       </c>
       <c r="O9" t="n">
-        <v>1570.801028829339</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2132.506921317869</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
         <v>2132.506921317869</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>410.4770685080374</v>
+        <v>416.6057425827422</v>
       </c>
       <c r="C10" t="n">
-        <v>369.6141624374992</v>
+        <v>245.5123701444587</v>
       </c>
       <c r="D10" t="n">
-        <v>369.6141624374992</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="E10" t="n">
-        <v>369.6141624374992</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>369.6141624374992</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>202.3637713630426</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>202.3637713630426</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
         <v>86.01772546736876</v>
@@ -4992,22 +4992,22 @@
         <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1375.867883064921</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1375.867883064921</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.982138004443</v>
+        <v>1346.454674219464</v>
       </c>
       <c r="W10" t="n">
-        <v>822.9124735133171</v>
+        <v>1067.385009728338</v>
       </c>
       <c r="X10" t="n">
-        <v>822.9124735133171</v>
+        <v>829.0411475880219</v>
       </c>
       <c r="Y10" t="n">
-        <v>598.1767749020818</v>
+        <v>604.3054489767866</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
         <v>490.5039577458317</v>
@@ -5080,13 +5080,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="12">
@@ -5126,22 +5126,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>423.0977207349383</v>
       </c>
       <c r="M12" t="n">
-        <v>844.5103911440685</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N12" t="n">
-        <v>844.5103911440685</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>735.6434849807119</v>
+        <v>580.8995485738499</v>
       </c>
       <c r="C13" t="n">
-        <v>735.6434849807119</v>
+        <v>580.8995485738499</v>
       </c>
       <c r="D13" t="n">
-        <v>735.6434849807119</v>
+        <v>421.4049038967599</v>
       </c>
       <c r="E13" t="n">
-        <v>574.7326698490315</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F13" t="n">
-        <v>410.1015439596227</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G13" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T13" t="n">
-        <v>1517.063076106301</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U13" t="n">
-        <v>1234.264928652425</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V13" t="n">
-        <v>960.3791835919473</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="W13" t="n">
-        <v>960.3791835919473</v>
+        <v>735.9533250185732</v>
       </c>
       <c r="X13" t="n">
-        <v>960.3791835919473</v>
+        <v>580.8995485738499</v>
       </c>
       <c r="Y13" t="n">
-        <v>735.6434849807119</v>
+        <v>580.8995485738499</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2462.839627293158</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C14" t="n">
-        <v>2052.715036606428</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.251106699488</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E14" t="n">
-        <v>1233.910891216385</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F14" t="n">
-        <v>812.8804791700727</v>
+        <v>862.4997589972158</v>
       </c>
       <c r="G14" t="n">
-        <v>404.1521950629048</v>
+        <v>453.771474890048</v>
       </c>
       <c r="H14" t="n">
-        <v>93.2436976906228</v>
+        <v>142.862977517766</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5320,10 +5320,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>704.368908940975</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N15" t="n">
-        <v>1578.027001052593</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="O15" t="n">
-        <v>1578.027001052593</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>606.6076240083174</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="C16" t="n">
-        <v>435.5142515700339</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="D16" t="n">
-        <v>435.5142515700339</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E16" t="n">
-        <v>407.4822787745749</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F16" t="n">
-        <v>242.8511528851661</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G16" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T16" t="n">
-        <v>1622.642594311473</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U16" t="n">
-        <v>1622.642594311473</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V16" t="n">
-        <v>1348.756849250995</v>
+        <v>928.9305777568491</v>
       </c>
       <c r="W16" t="n">
-        <v>1069.687184759869</v>
+        <v>649.8609132657234</v>
       </c>
       <c r="X16" t="n">
-        <v>831.3433226195527</v>
+        <v>649.8609132657234</v>
       </c>
       <c r="Y16" t="n">
-        <v>606.6076240083174</v>
+        <v>425.1252146544881</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2502.881125286859</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C17" t="n">
-        <v>2092.756534600129</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D17" t="n">
-        <v>1688.29260469319</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E17" t="n">
-        <v>1273.952389210086</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F17" t="n">
-        <v>852.921977163774</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
@@ -5551,16 +5551,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X17" t="n">
-        <v>3314.038978003258</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y17" t="n">
-        <v>2913.102304951348</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>947.1447271725442</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>947.1447271725442</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N18" t="n">
-        <v>1820.802819284162</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O18" t="n">
-        <v>1820.802819284162</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.6240469015422</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="C19" t="n">
-        <v>745.5306744632587</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="D19" t="n">
-        <v>586.0360297861687</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E19" t="n">
-        <v>425.1252146544881</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>260.4940887650794</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.956423950133</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.642594311473</v>
+        <v>1154.158276496257</v>
       </c>
       <c r="V19" t="n">
-        <v>1348.756849250995</v>
+        <v>1154.158276496257</v>
       </c>
       <c r="W19" t="n">
-        <v>1348.756849250995</v>
+        <v>1154.158276496257</v>
       </c>
       <c r="X19" t="n">
-        <v>1329.059451906822</v>
+        <v>915.8144143559407</v>
       </c>
       <c r="Y19" t="n">
-        <v>1104.323753295587</v>
+        <v>691.0787157447054</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2462.839627293158</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C20" t="n">
-        <v>2052.715036606428</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.251106699488</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1406.216283632599</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>369.2801436008075</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="C22" t="n">
-        <v>369.2801436008075</v>
+        <v>121.2967297483346</v>
       </c>
       <c r="D22" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1111.429368843485</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1111.429368843485</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>832.3597043523594</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>594.0158422120428</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>369.2801436008075</v>
+        <v>308.996436142379</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2462.839627293158</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.715036606428</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D23" t="n">
-        <v>1648.251106699488</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E23" t="n">
-        <v>1233.910891216385</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -5992,7 +5992,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4439.978400477999</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U23" t="n">
-        <v>4182.917908737509</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V23" t="n">
-        <v>3833.080354073989</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W23" t="n">
-        <v>3449.320053209158</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X23" t="n">
-        <v>3273.997480009557</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y23" t="n">
-        <v>2873.060806957647</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="24">
@@ -6068,16 +6068,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N24" t="n">
         <v>1578.027001052593</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4051.026465773143</v>
+        <v>425.2478852605868</v>
       </c>
       <c r="C25" t="n">
-        <v>4051.026465773143</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D25" t="n">
-        <v>3891.531821096053</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1445.011338526493</v>
       </c>
       <c r="T25" t="n">
-        <v>4390.520398086449</v>
+        <v>1445.011338526493</v>
       </c>
       <c r="U25" t="n">
-        <v>4390.520398086449</v>
+        <v>1162.213191072617</v>
       </c>
       <c r="V25" t="n">
-        <v>4390.520398086449</v>
+        <v>888.3274460121388</v>
       </c>
       <c r="W25" t="n">
-        <v>4390.520398086449</v>
+        <v>888.3274460121388</v>
       </c>
       <c r="X25" t="n">
-        <v>4390.520398086449</v>
+        <v>649.9835838718221</v>
       </c>
       <c r="Y25" t="n">
-        <v>4238.726172167188</v>
+        <v>425.2478852605868</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>873.3089913790386</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>464.5807072718708</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>153.6722098995888</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6256,22 +6256,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>648.3393773611919</v>
+        <v>707.4281517761267</v>
       </c>
       <c r="C28" t="n">
-        <v>477.2460049229084</v>
+        <v>536.3347793378432</v>
       </c>
       <c r="D28" t="n">
-        <v>477.2460049229084</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="E28" t="n">
-        <v>316.3351897912278</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="F28" t="n">
-        <v>316.3351897912278</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8511528851661</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U28" t="n">
-        <v>1339.844446857597</v>
+        <v>1219.657758976921</v>
       </c>
       <c r="V28" t="n">
-        <v>1339.844446857597</v>
+        <v>945.7720139164433</v>
       </c>
       <c r="W28" t="n">
-        <v>1060.774782366472</v>
+        <v>945.7720139164433</v>
       </c>
       <c r="X28" t="n">
-        <v>1060.774782366472</v>
+        <v>707.4281517761267</v>
       </c>
       <c r="Y28" t="n">
-        <v>836.0390837552362</v>
+        <v>707.4281517761267</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1697.773797548872</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>1283.433582065768</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>862.403170019456</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>453.6748859122881</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>142.7663885400061</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6505,10 +6505,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3132.785987910289</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="C31" t="n">
-        <v>3132.785987910289</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="D31" t="n">
-        <v>3132.785987910289</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="E31" t="n">
-        <v>3132.785987910289</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>3594.287766548796</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>3315.218102057671</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>3132.785987910289</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="Y31" t="n">
-        <v>3132.785987910289</v>
+        <v>547.3402982826956</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E32" t="n">
         <v>1320.262653899312</v>
@@ -6730,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3458.450207833939</v>
+        <v>425.2478852605868</v>
       </c>
       <c r="C34" t="n">
-        <v>3287.356835395656</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U34" t="n">
-        <v>4662.18488453114</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V34" t="n">
-        <v>4388.299139470661</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W34" t="n">
-        <v>4109.229474979536</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="X34" t="n">
-        <v>3870.885612839219</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="Y34" t="n">
-        <v>3646.149914227984</v>
+        <v>425.2478852605868</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H35" t="n">
         <v>179.5954603735497</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4401.813433128853</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U35" t="n">
-        <v>4144.752941388363</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="36">
@@ -7022,22 +7022,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>741.8628115185547</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>741.8628115185547</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N36" t="n">
-        <v>741.8628115185547</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O36" t="n">
-        <v>1228.182536368609</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P36" t="n">
-        <v>1789.888428857139</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>428.968196018315</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C37" t="n">
-        <v>257.8748235800315</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D37" t="n">
-        <v>257.8748235800315</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E37" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
         <v>93.2436976906228</v>
@@ -7122,25 +7122,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1403.271412968596</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1120.47326551472</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1120.47326551472</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W37" t="n">
-        <v>841.4036010235948</v>
+        <v>1047.822090689229</v>
       </c>
       <c r="X37" t="n">
-        <v>841.4036010235948</v>
+        <v>809.4782285489122</v>
       </c>
       <c r="Y37" t="n">
-        <v>616.6679024123595</v>
+        <v>584.7425299376769</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4563.636292181024</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4341.429808127883</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4084.369316387393</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>3734.531761723874</v>
       </c>
       <c r="W38" t="n">
-        <v>3674.640877840605</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X38" t="n">
-        <v>3273.997480009557</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y38" t="n">
-        <v>2873.060806957647</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1182.57754799176</v>
+        <v>727.8877385833455</v>
       </c>
       <c r="C40" t="n">
-        <v>1011.484175553476</v>
+        <v>727.8877385833455</v>
       </c>
       <c r="D40" t="n">
-        <v>851.989530876386</v>
+        <v>568.3930939062554</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7359,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U40" t="n">
-        <v>1436.250826191383</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V40" t="n">
-        <v>1436.250826191383</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W40" t="n">
-        <v>1436.250826191383</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="X40" t="n">
-        <v>1436.250826191383</v>
+        <v>1140.323143588625</v>
       </c>
       <c r="Y40" t="n">
-        <v>1370.277254385804</v>
+        <v>915.5874449773899</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2151.931129920876</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7441,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4401.813433128853</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V41" t="n">
-        <v>3747.492681333154</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3363.732380468323</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>2963.088982637275</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2562.152309585365</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>966.9017898022406</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>1670.858880348135</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
         <v>1760.328909494509</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3625.578320005835</v>
+        <v>573.4391700005397</v>
       </c>
       <c r="C43" t="n">
-        <v>3625.578320005835</v>
+        <v>402.3457975622561</v>
       </c>
       <c r="D43" t="n">
-        <v>3625.578320005835</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E43" t="n">
-        <v>3464.667504874155</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F43" t="n">
-        <v>3300.036378984746</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G43" t="n">
-        <v>3132.785987910289</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>4390.520398086449</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>4150.971659063151</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U43" t="n">
-        <v>3868.173511609275</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V43" t="n">
-        <v>3625.578320005835</v>
+        <v>837.543623783007</v>
       </c>
       <c r="W43" t="n">
-        <v>3625.578320005835</v>
+        <v>811.7830321408562</v>
       </c>
       <c r="X43" t="n">
-        <v>3625.578320005835</v>
+        <v>573.4391700005397</v>
       </c>
       <c r="Y43" t="n">
-        <v>3625.578320005835</v>
+        <v>573.4391700005397</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2494.579294402201</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2084.454703715471</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1679.990773808531</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1265.650558325428</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>844.6201462791155</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>435.8918621719477</v>
       </c>
       <c r="H44" t="n">
         <v>179.5954603735497</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V44" t="n">
-        <v>4047.636833531609</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W44" t="n">
-        <v>3760.992640523532</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>286.056555253256</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>1129.033635947823</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>1129.033635947823</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.2436976906228</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C46" t="n">
-        <v>93.2436976906228</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>828.6312213896092</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V46" t="n">
-        <v>554.7454763291312</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W46" t="n">
-        <v>275.6758118380055</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X46" t="n">
-        <v>93.2436976906228</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.2436976906228</v>
+        <v>440.4380487617572</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
@@ -7990,13 +7990,13 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>337.1293820533569</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8063,25 +8063,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>564.2543476875379</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>72.23607294538797</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>292.3871721926164</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>173.5595280421008</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>205.1561293621963</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
@@ -8312,13 +8312,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8464,13 +8464,13 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>496.0520662103268</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>628.1510783507341</v>
+        <v>270.501948108868</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>189.6570480412971</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>322.8042452836259</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,25 +8774,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>389.300405673794</v>
       </c>
       <c r="M12" t="n">
-        <v>816.4195296509889</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>674.8624769205913</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>204.0221919942796</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
@@ -9254,13 +9254,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>376.41122516135</v>
+        <v>87.41601839410231</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9479,19 +9479,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>56.49167641875563</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
@@ -9503,7 +9503,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
@@ -9728,7 +9728,7 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>701.4825071992079</v>
+        <v>506.72204501473</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
@@ -9953,25 +9953,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N27" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10190,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10427,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10670,25 +10670,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>548.9835243030855</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N39" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11068,7 +11068,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11138,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>144.6334018173235</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11378,28 +11378,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>481.4220302546871</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>36.3651580272259</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>132.6295286099449</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>82.45718483863737</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>36.36515802722579</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>131.5500539128593</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>185.915399974552</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>45.8471620423332</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>53.32394297533841</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>216.460000148182</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>50.20150394294824</v>
+        <v>130.1271964931844</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24141,7 +24141,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>223.0676163851327</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>8.672907211758314</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.21205796505416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>25.66401796922125</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>92.82869062671092</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>149.9630205783741</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>36.46078111520808</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>36.36515802722613</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>142.3010332873897</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>55.35263051300575</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>45.55681957367926</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>222.4997066824607</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>4.8745592198064</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25125,25 +25125,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>9.865735325909839</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>96.14494677818635</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>0.756449042671079</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
@@ -25362,10 +25362,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>204.5036325425059</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>224.3300868725946</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>36.36515802722576</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25614,10 +25614,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>38.43433328263106</v>
       </c>
       <c r="Y40" t="n">
-        <v>157.1745055375995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>49.19646844041392</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>30.97764792246852</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>250.7759821204851</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>54.06597461814519</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>96.14494677818658</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>72.64537213897026</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>535850.0349399232</v>
+        <v>535850.0349399233</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>535850.0349399233</v>
+        <v>535850.0349399232</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>535850.0349399231</v>
+        <v>535850.0349399232</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>535850.0349399233</v>
+        <v>535850.0349399232</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>535850.0349399232</v>
+        <v>535850.0349399233</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>535850.0349399231</v>
+        <v>535850.0349399233</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>535850.0349399233</v>
+        <v>535850.0349399232</v>
       </c>
     </row>
   </sheetData>
@@ -26319,37 +26319,37 @@
         <v>537511.8970071077</v>
       </c>
       <c r="D2" t="n">
-        <v>537511.8970071076</v>
+        <v>537511.897007108</v>
       </c>
       <c r="E2" t="n">
         <v>477920.3014329048</v>
       </c>
       <c r="F2" t="n">
-        <v>477920.3014329046</v>
+        <v>477920.3014329048</v>
       </c>
       <c r="G2" t="n">
-        <v>477920.3014329047</v>
+        <v>477920.3014329048</v>
       </c>
       <c r="H2" t="n">
         <v>477920.3014329048</v>
       </c>
       <c r="I2" t="n">
-        <v>477920.3014329048</v>
+        <v>477920.3014329049</v>
       </c>
       <c r="J2" t="n">
-        <v>477920.3014329048</v>
+        <v>477920.3014329049</v>
       </c>
       <c r="K2" t="n">
         <v>477920.3014329048</v>
       </c>
       <c r="L2" t="n">
-        <v>477920.3014329046</v>
+        <v>477920.3014329049</v>
       </c>
       <c r="M2" t="n">
-        <v>477920.3014329046</v>
+        <v>477920.3014329047</v>
       </c>
       <c r="N2" t="n">
-        <v>477920.3014329048</v>
+        <v>477920.3014329047</v>
       </c>
       <c r="O2" t="n">
         <v>477920.3014329048</v>
@@ -26423,16 +26423,16 @@
         <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>57848.94447198568</v>
+        <v>57848.94447198563</v>
       </c>
       <c r="E4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="F4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="G4" t="n">
-        <v>738.1279301446464</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="H4" t="n">
         <v>738.1279301446465</v>
@@ -26450,13 +26450,13 @@
         <v>738.1279301446466</v>
       </c>
       <c r="M4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="N4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="P4" t="n">
         <v>738.1279301446465</v>
@@ -26527,43 +26527,43 @@
         <v>317024.4607204131</v>
       </c>
       <c r="D6" t="n">
-        <v>208834.4122698532</v>
+        <v>208834.4122698536</v>
       </c>
       <c r="E6" t="n">
-        <v>379348.0090769526</v>
+        <v>379167.4284843035</v>
       </c>
       <c r="F6" t="n">
-        <v>406316.9632578866</v>
+        <v>406136.3826652377</v>
       </c>
       <c r="G6" t="n">
-        <v>406316.9632578868</v>
+        <v>406136.3826652377</v>
       </c>
       <c r="H6" t="n">
-        <v>406316.9632578869</v>
+        <v>406136.3826652377</v>
       </c>
       <c r="I6" t="n">
-        <v>406316.9632578868</v>
+        <v>406136.3826652378</v>
       </c>
       <c r="J6" t="n">
-        <v>269722.1624519919</v>
+        <v>269541.5818593428</v>
       </c>
       <c r="K6" t="n">
-        <v>406316.9632578869</v>
+        <v>406136.3826652377</v>
       </c>
       <c r="L6" t="n">
-        <v>266317.6523931339</v>
+        <v>266137.0718004851</v>
       </c>
       <c r="M6" t="n">
-        <v>383807.6984838392</v>
+        <v>383627.1178911902</v>
       </c>
       <c r="N6" t="n">
-        <v>406316.9632578868</v>
+        <v>406136.3826652376</v>
       </c>
       <c r="O6" t="n">
-        <v>406316.9632578868</v>
+        <v>406136.3826652378</v>
       </c>
       <c r="P6" t="n">
-        <v>406316.9632578869</v>
+        <v>406136.3826652378</v>
       </c>
     </row>
   </sheetData>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>35.9360133577693</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,13 +27390,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>56.55986258893591</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>237.4233239290414</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>170.535215949722</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.48256044511925</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>177.1214849581809</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>55.35263051300484</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>393.0160384451235</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>59.18065692248967</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>128.9281617040678</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -28025,13 +28025,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,19 +28064,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>4.874559219806258</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,13 +34710,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>244.2170912967376</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
+        <v>500.9700927793177</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>506.6900639491205</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14.48459394538798</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>244.2170912967376</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>147.5918456237788</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35184,13 +35184,13 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>403.1397754537075</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>534.50171506985</v>
+        <v>176.8525848279838</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>133.5425242304481</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>265.0527662836259</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="M12" t="n">
-        <v>758.8552459125715</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>617.2981931821739</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
@@ -35974,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>322.1515901585462</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>3.298283025005639</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L23" t="n">
         <v>719.7892927396343</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>648.289113805458</v>
+        <v>453.52865162098</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N27" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M35" t="n">
         <v>784.1601929209636</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>491.2320453030855</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N39" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37797,7 +37797,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>90.3737668145198</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38037,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38098,28 +38098,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>423.670551254687</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
